--- a/Jogos_do_Dia/2023-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -695,13 +695,13 @@
         <v>2.94</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" t="n">
         <v>6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -796,13 +796,13 @@
         <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
         <v>1.26</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="N4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
         <v>1.01</v>
@@ -986,7 +986,7 @@
         <v>1.8</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
@@ -1093,10 +1093,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.54</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>2.7</v>
@@ -1200,13 +1200,13 @@
         <v>1.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="N7" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.96</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4.05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.95</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1533,10 +1533,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="N13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>3.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N14" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>1.42</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>1.1</v>
@@ -2083,7 +2083,7 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N15" t="n">
         <v>1.5</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
         <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
         <v>1.04</v>
@@ -2523,10 +2523,10 @@
         <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>2.35</v>
+        <v>2.14</v>
       </c>
       <c r="N19" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N20" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2725,10 +2725,10 @@
         <v>1.55</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I22" t="n">
         <v>1.12</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I24" t="n">
         <v>1.03</v>
@@ -3165,10 +3165,10 @@
         <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3183,10 +3183,10 @@
         <v>2.95</v>
       </c>
       <c r="M25" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="N25" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="I26" t="n">
         <v>1.06</v>
@@ -3293,10 +3293,10 @@
         <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="N26" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3953,10 +3953,10 @@
         <v>2.62</v>
       </c>
       <c r="M32" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>

--- a/Jogos_do_Dia/2023-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>1.53</v>
@@ -704,7 +704,7 @@
         <v>2.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE2" t="n">
         <v>1.57</v>
@@ -716,7 +716,7 @@
         <v>2.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
         <v>1.33</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -900,10 +900,10 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X4" t="n">
         <v>1.9</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.01</v>
@@ -983,10 +983,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1010,10 +1010,10 @@
         <v>2.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="X5" t="n">
         <v>1.8</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>1.09</v>
@@ -1090,13 +1090,13 @@
         <v>1.48</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M6" t="n">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O6" t="n">
         <v>1.54</v>
@@ -1135,25 +1135,25 @@
         <v>3.65</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="I7" t="n">
         <v>1.11</v>
@@ -1197,16 +1197,16 @@
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="N7" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.96</v>
       </c>
       <c r="M8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4.05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
         <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1533,10 +1533,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1625,7 +1625,7 @@
         <v>2.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N11" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1845,10 +1845,10 @@
         <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>3.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O14" t="n">
         <v>1.42</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>4.02</v>
       </c>
       <c r="I15" t="n">
         <v>1.1</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.46</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
         <v>3.25</v>
@@ -2523,10 +2523,10 @@
         <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2746,7 +2746,7 @@
         <v>2.04</v>
       </c>
       <c r="N21" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="H22" t="n">
-        <v>4.75</v>
+        <v>4.86</v>
       </c>
       <c r="I22" t="n">
         <v>1.12</v>
@@ -2847,10 +2847,10 @@
         <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M22" t="n">
         <v>2.43</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.4</v>
+        <v>4.28</v>
       </c>
       <c r="G23" t="n">
-        <v>4.35</v>
+        <v>4.24</v>
       </c>
       <c r="H23" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -2963,10 +2963,10 @@
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>4.02</v>
       </c>
       <c r="I24" t="n">
         <v>1.03</v>
@@ -3076,7 +3076,7 @@
         <v>2.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="H25" t="n">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3183,10 +3183,10 @@
         <v>2.95</v>
       </c>
       <c r="M25" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
         <v>1.44</v>
@@ -3296,7 +3296,7 @@
         <v>1.95</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3335,28 +3335,28 @@
         <v>3.56</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE26" t="n">
         <v>1.51</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG26" t="n">
         <v>2.29</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
@@ -3385,22 +3385,22 @@
         <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M27" t="n">
         <v>2.4</v>
@@ -3409,25 +3409,25 @@
         <v>1.53</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -3445,28 +3445,28 @@
         <v>2.66</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="28">
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G30" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="N30" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3953,10 +3953,10 @@
         <v>2.62</v>
       </c>
       <c r="M32" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
